--- a/biology/Botanique/Scabiosa_ochroleuca/Scabiosa_ochroleuca.xlsx
+++ b/biology/Botanique/Scabiosa_ochroleuca/Scabiosa_ochroleuca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scabiosa ochroleuca, de nom commun scabieuse vert jaunâtre[1] ou scabieuse jaune pâle[1] ou encore scabieuse à fleurs de lait[2], est une espèce de plante de la famille des Dipsacaceae et du genre Scabiosa.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scabiosa ochroleuca, de nom commun scabieuse vert jaunâtre ou scabieuse jaune pâle ou encore scabieuse à fleurs de lait, est une espèce de plante de la famille des Dipsacaceae et du genre Scabiosa.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La scabiose jaune pâle est une plante herbacée vivace bisannuelle qui atteint des hauteurs de 20 à 60 centimètres. La tige est généralement ramifiée et souvent très velue.
 Les feuilles basales sont généralement simplement pennées avec une feuille terminale lancéolée, poilue sur la face inférieure des nervures. Les feuilles de la tige centrale opposées sont simples à doublement pennées, avec des poils courts et bouclés, leurs extrémités latérales mesurent 0,5 à 2 mm de large. Les lobes terminaux sont à peine plus larges que les lobes latéraux.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Scabiosa ochroleuca est particulièrement fréquente dans le sud-est de l'Europe et le centre-est de l'Europe. Son aire de répartition est dans les pays suivants : Algérie, Espagne, Allemagne, Autriche, République tchèque, Slovaquie, Hongrie, Serbie, Croatie, Slovénie, Bulgarie, Roumanie, Albanie, Moldavie, Grèce, Pologne, Lettonie, Lituanie, Estonie, Russie, Biélorussie, Ukraine , Géorgie, Azerbaïdjan, Caucase, Turquie européenne et asiatique.
 La scabiose jaune pâle prospère en Europe centrale dans les prairies sèches, les talus, les talus ferroviaires et se rencontre même sur les terrils. Elle aime un peu la craie et pousse de la colline au niveau montagnard.
@@ -578,10 +594,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La pollinisation est principalement assurée par les abeilles, les bourdons et les syrphes, mais dans une moindre mesure également par d'autres insectes. Les diaspores sont propagées par le vent (anémochorie).
-Scabiosa ochroleuca est une plante hôte pour les larves d’Abia sericea et les chenilles de Gillmeria miantodactylus[3], Aethes hartmanniana, Stenoptilia stigmatodactylus (en). Elle subit une galle venant d’Alucita huebneri (en)[4].
+Scabiosa ochroleuca est une plante hôte pour les larves d’Abia sericea et les chenilles de Gillmeria miantodactylus, Aethes hartmanniana, Stenoptilia stigmatodactylus (en). Elle subit une galle venant d’Alucita huebneri (en).
 </t>
         </is>
       </c>
